--- a/biology/Médecine/Antimigraineux/Antimigraineux.xlsx
+++ b/biology/Médecine/Antimigraineux/Antimigraineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un antimigraineux est une substance active ayant pour effet de combattre la migraine. Les antimigraineux sont des vasoconstricteurs cérébraux[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un antimigraineux est une substance active ayant pour effet de combattre la migraine. Les antimigraineux sont des vasoconstricteurs cérébraux. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Les triptans</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sumatriptan
 Zolmitriptan
@@ -545,7 +559,9 @@
           <t>Les dérivés de l'ergot de seigle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ergotamine
 Dihydroergotamine</t>
@@ -576,13 +592,15 @@
           <t>Les autres antimigraineux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pizotifène
 Oxétorone
 Indoramine
 Flunarizine
-Galcanézumab[2]</t>
+Galcanézumab</t>
         </is>
       </c>
     </row>
